--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Wnt16-Lrp5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,16 +82,16 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Wnt16</t>
   </si>
   <si>
     <t>Lrp5</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.211091867199579</v>
+        <v>0.2114893333333333</v>
       </c>
       <c r="H2">
-        <v>0.211091867199579</v>
+        <v>0.634468</v>
       </c>
       <c r="I2">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="J2">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N2">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O2">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P2">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q2">
-        <v>2.036251986623723</v>
+        <v>2.860096513798667</v>
       </c>
       <c r="R2">
-        <v>2.036251986623723</v>
+        <v>25.740868624188</v>
       </c>
       <c r="S2">
-        <v>0.05000879433573387</v>
+        <v>0.05277766895046383</v>
       </c>
       <c r="T2">
-        <v>0.05000879433573387</v>
+        <v>0.05277766895046383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.211091867199579</v>
+        <v>0.2114893333333333</v>
       </c>
       <c r="H3">
-        <v>0.211091867199579</v>
+        <v>0.634468</v>
       </c>
       <c r="I3">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="J3">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N3">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O3">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P3">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q3">
-        <v>2.434302908995958</v>
+        <v>2.452620931719111</v>
       </c>
       <c r="R3">
-        <v>2.434302908995958</v>
+        <v>22.073588385472</v>
       </c>
       <c r="S3">
-        <v>0.05978462112084024</v>
+        <v>0.04525847815650372</v>
       </c>
       <c r="T3">
-        <v>0.05978462112084024</v>
+        <v>0.04525847815650372</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.211091867199579</v>
+        <v>0.2114893333333333</v>
       </c>
       <c r="H4">
-        <v>0.211091867199579</v>
+        <v>0.634468</v>
       </c>
       <c r="I4">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="J4">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N4">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O4">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P4">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q4">
-        <v>0.9411811556246974</v>
+        <v>0.9675238695088888</v>
       </c>
       <c r="R4">
-        <v>0.9411811556246974</v>
+        <v>8.70771482558</v>
       </c>
       <c r="S4">
-        <v>0.02311469069324049</v>
+        <v>0.01785382214909636</v>
       </c>
       <c r="T4">
-        <v>0.02311469069324049</v>
+        <v>0.01785382214909636</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.211091867199579</v>
+        <v>0.2114893333333333</v>
       </c>
       <c r="H5">
-        <v>0.211091867199579</v>
+        <v>0.634468</v>
       </c>
       <c r="I5">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="J5">
-        <v>0.1817205850429361</v>
+        <v>0.1527797075198618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.415524087928739</v>
+        <v>9.452519666666667</v>
       </c>
       <c r="N5">
-        <v>9.415524087928739</v>
+        <v>28.357559</v>
       </c>
       <c r="O5">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="P5">
-        <v>0.2686128205100612</v>
+        <v>0.2414570551459009</v>
       </c>
       <c r="Q5">
-        <v>1.987540560383491</v>
+        <v>1.999107082623556</v>
       </c>
       <c r="R5">
-        <v>1.987540560383491</v>
+        <v>17.991963743612</v>
       </c>
       <c r="S5">
-        <v>0.04881247889312152</v>
+        <v>0.03688973826379787</v>
       </c>
       <c r="T5">
-        <v>0.04881247889312152</v>
+        <v>0.03688973826379787</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.950536944141212</v>
+        <v>0.955321</v>
       </c>
       <c r="H6">
-        <v>0.950536944141212</v>
+        <v>2.865963</v>
       </c>
       <c r="I6">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="J6">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.646283457706719</v>
+        <v>13.523597</v>
       </c>
       <c r="N6">
-        <v>9.646283457706719</v>
+        <v>40.570791</v>
       </c>
       <c r="O6">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="P6">
-        <v>0.2751960892263142</v>
+        <v>0.3454494697445509</v>
       </c>
       <c r="Q6">
-        <v>9.16914880020847</v>
+        <v>12.919376209637</v>
       </c>
       <c r="R6">
-        <v>9.16914880020847</v>
+        <v>116.274385886733</v>
       </c>
       <c r="S6">
-        <v>0.2251872948905803</v>
+        <v>0.2384026403826169</v>
       </c>
       <c r="T6">
-        <v>0.2251872948905803</v>
+        <v>0.2384026403826169</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.950536944141212</v>
+        <v>0.955321</v>
       </c>
       <c r="H7">
-        <v>0.950536944141212</v>
+        <v>2.865963</v>
       </c>
       <c r="I7">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="J7">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.5319597163562</v>
+        <v>11.59690133333333</v>
       </c>
       <c r="N7">
-        <v>11.5319597163562</v>
+        <v>34.790704</v>
       </c>
       <c r="O7">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320407</v>
       </c>
       <c r="P7">
-        <v>0.3289920132422786</v>
+        <v>0.2962335698320406</v>
       </c>
       <c r="Q7">
-        <v>10.96155374874478</v>
+        <v>11.07876337866133</v>
       </c>
       <c r="R7">
-        <v>10.96155374874478</v>
+        <v>99.70887040795199</v>
       </c>
       <c r="S7">
-        <v>0.2692073921214383</v>
+        <v>0.2044376136114791</v>
       </c>
       <c r="T7">
-        <v>0.2692073921214383</v>
+        <v>0.204437613611479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.950536944141212</v>
+        <v>0.955321</v>
       </c>
       <c r="H8">
-        <v>0.950536944141212</v>
+        <v>2.865963</v>
       </c>
       <c r="I8">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="J8">
-        <v>0.8182794149570638</v>
+        <v>0.6901230462414899</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.45863295498186</v>
+        <v>4.574811666666666</v>
       </c>
       <c r="N8">
-        <v>4.45863295498186</v>
+        <v>13.724435</v>
       </c>
       <c r="O8">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="P8">
-        <v>0.127199077021346</v>
+        <v>0.1168599052775075</v>
       </c>
       <c r="Q8">
-        <v>4.238095344075759</v>
+        <v>4.370413656211666</v>
       </c>
       <c r="R8">
-        <v>4.238095344075759</v>
+        <v>39.333722905905</v>
       </c>
       <c r="S8">
-        <v>0.1040843863281055</v>
+        <v>0.08064771381360547</v>
       </c>
       <c r="T8">
-        <v>0.1040843863281055</v>
+        <v>0.08064771381360547</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,557 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.955321</v>
+      </c>
+      <c r="H9">
+        <v>2.865963</v>
+      </c>
+      <c r="I9">
+        <v>0.6901230462414899</v>
+      </c>
+      <c r="J9">
+        <v>0.6901230462414899</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>9.452519666666667</v>
+      </c>
+      <c r="N9">
+        <v>28.357559</v>
+      </c>
+      <c r="O9">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="P9">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="Q9">
+        <v>9.030190540479667</v>
+      </c>
+      <c r="R9">
+        <v>81.271714864317</v>
+      </c>
+      <c r="S9">
+        <v>0.1666350784337885</v>
+      </c>
+      <c r="T9">
+        <v>0.1666350784337885</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.109672</v>
+      </c>
+      <c r="H10">
+        <v>0.329016</v>
+      </c>
+      <c r="I10">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="J10">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.523597</v>
+      </c>
+      <c r="N10">
+        <v>40.570791</v>
+      </c>
+      <c r="O10">
+        <v>0.3454494697445509</v>
+      </c>
+      <c r="P10">
+        <v>0.3454494697445509</v>
+      </c>
+      <c r="Q10">
+        <v>1.483159930184</v>
+      </c>
+      <c r="R10">
+        <v>13.348439371656</v>
+      </c>
+      <c r="S10">
+        <v>0.02736890990153295</v>
+      </c>
+      <c r="T10">
+        <v>0.02736890990153295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.109672</v>
+      </c>
+      <c r="H11">
+        <v>0.329016</v>
+      </c>
+      <c r="I11">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="J11">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>11.59690133333333</v>
+      </c>
+      <c r="N11">
+        <v>34.790704</v>
+      </c>
+      <c r="O11">
+        <v>0.2962335698320407</v>
+      </c>
+      <c r="P11">
+        <v>0.2962335698320406</v>
+      </c>
+      <c r="Q11">
+        <v>1.271855363029333</v>
+      </c>
+      <c r="R11">
+        <v>11.446698267264</v>
+      </c>
+      <c r="S11">
+        <v>0.02346968397009814</v>
+      </c>
+      <c r="T11">
+        <v>0.02346968397009814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.109672</v>
+      </c>
+      <c r="H12">
+        <v>0.329016</v>
+      </c>
+      <c r="I12">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="J12">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.574811666666666</v>
+      </c>
+      <c r="N12">
+        <v>13.724435</v>
+      </c>
+      <c r="O12">
+        <v>0.1168599052775075</v>
+      </c>
+      <c r="P12">
+        <v>0.1168599052775075</v>
+      </c>
+      <c r="Q12">
+        <v>0.5017287451066665</v>
+      </c>
+      <c r="R12">
+        <v>4.515558705959999</v>
+      </c>
+      <c r="S12">
+        <v>0.00925845456068247</v>
+      </c>
+      <c r="T12">
+        <v>0.00925845456068247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.109672</v>
+      </c>
+      <c r="H13">
+        <v>0.329016</v>
+      </c>
+      <c r="I13">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="J13">
+        <v>0.07922695588958756</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>9.452519666666667</v>
+      </c>
+      <c r="N13">
+        <v>28.357559</v>
+      </c>
+      <c r="O13">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="P13">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="Q13">
+        <v>1.036676736882667</v>
+      </c>
+      <c r="R13">
+        <v>9.330090631944</v>
+      </c>
+      <c r="S13">
+        <v>0.019129907457274</v>
+      </c>
+      <c r="T13">
+        <v>0.019129907457274</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.950536944141212</v>
-      </c>
-      <c r="H9">
-        <v>0.950536944141212</v>
-      </c>
-      <c r="I9">
-        <v>0.8182794149570638</v>
-      </c>
-      <c r="J9">
-        <v>0.8182794149570638</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>9.415524087928739</v>
-      </c>
-      <c r="N9">
-        <v>9.415524087928739</v>
-      </c>
-      <c r="O9">
-        <v>0.2686128205100612</v>
-      </c>
-      <c r="P9">
-        <v>0.2686128205100612</v>
-      </c>
-      <c r="Q9">
-        <v>8.949803494027757</v>
-      </c>
-      <c r="R9">
-        <v>8.949803494027757</v>
-      </c>
-      <c r="S9">
-        <v>0.2198003416169397</v>
-      </c>
-      <c r="T9">
-        <v>0.2198003416169397</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.107794</v>
+      </c>
+      <c r="H14">
+        <v>0.323382</v>
+      </c>
+      <c r="I14">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="J14">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>13.523597</v>
+      </c>
+      <c r="N14">
+        <v>40.570791</v>
+      </c>
+      <c r="O14">
+        <v>0.3454494697445509</v>
+      </c>
+      <c r="P14">
+        <v>0.3454494697445509</v>
+      </c>
+      <c r="Q14">
+        <v>1.457762615018</v>
+      </c>
+      <c r="R14">
+        <v>13.119863535162</v>
+      </c>
+      <c r="S14">
+        <v>0.02690025050993729</v>
+      </c>
+      <c r="T14">
+        <v>0.02690025050993729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.107794</v>
+      </c>
+      <c r="H15">
+        <v>0.323382</v>
+      </c>
+      <c r="I15">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="J15">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>11.59690133333333</v>
+      </c>
+      <c r="N15">
+        <v>34.790704</v>
+      </c>
+      <c r="O15">
+        <v>0.2962335698320407</v>
+      </c>
+      <c r="P15">
+        <v>0.2962335698320406</v>
+      </c>
+      <c r="Q15">
+        <v>1.250076382325333</v>
+      </c>
+      <c r="R15">
+        <v>11.250687440928</v>
+      </c>
+      <c r="S15">
+        <v>0.0230677940939598</v>
+      </c>
+      <c r="T15">
+        <v>0.0230677940939598</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.107794</v>
+      </c>
+      <c r="H16">
+        <v>0.323382</v>
+      </c>
+      <c r="I16">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="J16">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>4.574811666666666</v>
+      </c>
+      <c r="N16">
+        <v>13.724435</v>
+      </c>
+      <c r="O16">
+        <v>0.1168599052775075</v>
+      </c>
+      <c r="P16">
+        <v>0.1168599052775075</v>
+      </c>
+      <c r="Q16">
+        <v>0.4931372487966666</v>
+      </c>
+      <c r="R16">
+        <v>4.43823523917</v>
+      </c>
+      <c r="S16">
+        <v>0.009099914754123261</v>
+      </c>
+      <c r="T16">
+        <v>0.009099914754123261</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.107794</v>
+      </c>
+      <c r="H17">
+        <v>0.323382</v>
+      </c>
+      <c r="I17">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="J17">
+        <v>0.07787029034906086</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>9.452519666666667</v>
+      </c>
+      <c r="N17">
+        <v>28.357559</v>
+      </c>
+      <c r="O17">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="P17">
+        <v>0.2414570551459009</v>
+      </c>
+      <c r="Q17">
+        <v>1.018924904948667</v>
+      </c>
+      <c r="R17">
+        <v>9.170324144538</v>
+      </c>
+      <c r="S17">
+        <v>0.0188023309910405</v>
+      </c>
+      <c r="T17">
+        <v>0.0188023309910405</v>
       </c>
     </row>
   </sheetData>
